--- a/processed_data/participants_cleaned/LLL_Liv_Participants.xlsx
+++ b/processed_data/participants_cleaned/LLL_Liv_Participants.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Many Babies\Gaze Following\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="900" windowWidth="34725" windowHeight="16815"/>
+    <workbookView xWindow="7180" yWindow="1720" windowWidth="34720" windowHeight="16820"/>
   </bookViews>
   <sheets>
-    <sheet name="Monolingual" sheetId="5" r:id="rId1"/>
-    <sheet name="Bilingual" sheetId="6" r:id="rId2"/>
+    <sheet name="Combined" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="235">
   <si>
     <t>method</t>
   </si>
@@ -735,8 +732,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +749,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -761,7 +774,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -771,29 +784,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,23 +801,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,16 +825,22 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,8 +853,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,11 +862,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -868,7 +873,13 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -949,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,7 +995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1161,7 +1172,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1169,77 +1180,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="L"/>
-  <dimension ref="A1:BG48"/>
+  <dimension ref="A1:BG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="44.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="16" style="3" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="18.140625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="8.28515625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="18.85546875" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.42578125" style="3" customWidth="1"/>
-    <col min="35" max="36" width="29.7109375" style="3" customWidth="1"/>
-    <col min="37" max="38" width="15.28515625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.28515625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" style="3" customWidth="1"/>
-    <col min="43" max="43" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" style="3" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" style="3" customWidth="1"/>
-    <col min="46" max="46" width="21.42578125" style="3" customWidth="1"/>
-    <col min="47" max="47" width="23.42578125" style="3" customWidth="1"/>
-    <col min="48" max="48" width="15" style="3" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="17.85546875" style="3" customWidth="1"/>
-    <col min="51" max="51" width="14.42578125" style="3" customWidth="1"/>
-    <col min="52" max="52" width="24.140625" style="3" customWidth="1"/>
-    <col min="53" max="53" width="23.42578125" style="3" customWidth="1"/>
-    <col min="54" max="54" width="23.7109375" style="3" customWidth="1"/>
-    <col min="55" max="55" width="13.140625" style="3" customWidth="1"/>
-    <col min="56" max="56" width="16.42578125" style="3" customWidth="1"/>
-    <col min="57" max="57" width="18.85546875" style="3" customWidth="1"/>
-    <col min="58" max="58" width="17.42578125" style="3" customWidth="1"/>
-    <col min="59" max="59" width="17.140625" style="3" customWidth="1"/>
-    <col min="60" max="16384" width="9.140625" style="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1418,7 +1367,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -1437,10 +1386,10 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -1458,6 +1407,7 @@
       <c r="M2" s="3">
         <v>100</v>
       </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
         <v>88</v>
       </c>
@@ -1594,7 +1544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -1613,10 +1563,10 @@
       <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1773,7 +1723,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
@@ -1792,12 +1742,13 @@
       <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>114</v>
       </c>
@@ -1949,7 +1900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59">
       <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
@@ -2128,7 +2079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59">
       <c r="A6" s="3" t="s">
         <v>86</v>
       </c>
@@ -2307,7 +2258,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59">
       <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
@@ -2332,6 +2283,7 @@
       <c r="H7" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
         <v>114</v>
       </c>
@@ -2483,7 +2435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
@@ -2508,6 +2460,7 @@
       <c r="H8" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
         <v>114</v>
       </c>
@@ -2659,7 +2612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59">
       <c r="A9" s="3" t="s">
         <v>86</v>
       </c>
@@ -2838,7 +2791,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
@@ -3017,7 +2970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59">
       <c r="A11" s="3" t="s">
         <v>86</v>
       </c>
@@ -3196,7 +3149,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59">
       <c r="A12" s="3" t="s">
         <v>86</v>
       </c>
@@ -3375,7 +3328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -3554,7 +3507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59">
       <c r="A14" s="3" t="s">
         <v>86</v>
       </c>
@@ -3733,7 +3686,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59">
       <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
@@ -3758,6 +3711,7 @@
       <c r="H15" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
         <v>114</v>
       </c>
@@ -3909,7 +3863,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -3934,6 +3888,7 @@
       <c r="H16" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
         <v>114</v>
       </c>
@@ -4085,7 +4040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59">
       <c r="A17" s="3" t="s">
         <v>86</v>
       </c>
@@ -4110,6 +4065,7 @@
       <c r="H17" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
         <v>114</v>
       </c>
@@ -4261,7 +4217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -4438,7 +4394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
@@ -4615,7 +4571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59">
       <c r="A20" s="3" t="s">
         <v>86</v>
       </c>
@@ -4634,10 +4590,10 @@
       <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -4794,7 +4750,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59">
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
@@ -4813,10 +4769,10 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -4973,7 +4929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59">
       <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
@@ -4992,10 +4948,10 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -5152,7 +5108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59">
       <c r="A23" s="3" t="s">
         <v>86</v>
       </c>
@@ -5171,12 +5127,13 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
         <v>114</v>
       </c>
@@ -5328,7 +5285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -5347,10 +5304,10 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -5507,7 +5464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59">
       <c r="A25" s="3" t="s">
         <v>86</v>
       </c>
@@ -5532,6 +5489,7 @@
       <c r="H25" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
         <v>114</v>
       </c>
@@ -5683,7 +5641,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59">
       <c r="A26" s="3" t="s">
         <v>86</v>
       </c>
@@ -5702,10 +5660,10 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -5862,7 +5820,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -5881,12 +5839,13 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
         <v>114</v>
       </c>
@@ -6038,7 +5997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59">
       <c r="A28" s="3" t="s">
         <v>86</v>
       </c>
@@ -6057,10 +6016,10 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -6217,7 +6176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59">
       <c r="A29" s="3" t="s">
         <v>86</v>
       </c>
@@ -6236,10 +6195,10 @@
       <c r="F29" s="3">
         <v>4</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -6396,7 +6355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
@@ -6418,7 +6377,7 @@
       <c r="G30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="15" t="s">
         <v>88</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -6575,7 +6534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59">
       <c r="A31" s="3" t="s">
         <v>86</v>
       </c>
@@ -6597,9 +6556,10 @@
       <c r="G31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H31" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
         <v>114</v>
       </c>
@@ -6751,7 +6711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59">
       <c r="A32" s="3" t="s">
         <v>86</v>
       </c>
@@ -6773,9 +6733,10 @@
       <c r="G32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H32" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
         <v>114</v>
       </c>
@@ -6927,7 +6888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59">
       <c r="A33" s="3" t="s">
         <v>86</v>
       </c>
@@ -6949,9 +6910,10 @@
       <c r="G33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H33" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
         <v>114</v>
       </c>
@@ -7103,7 +7065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59">
       <c r="A34" s="3" t="s">
         <v>86</v>
       </c>
@@ -7125,10 +7087,10 @@
       <c r="G34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="16" t="s">
+      <c r="H34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -7282,7 +7244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59">
       <c r="A35" s="3" t="s">
         <v>86</v>
       </c>
@@ -7304,9 +7266,10 @@
       <c r="G35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H35" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
         <v>114</v>
       </c>
@@ -7458,7 +7421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59">
       <c r="A36" s="3" t="s">
         <v>86</v>
       </c>
@@ -7480,10 +7443,10 @@
       <c r="G36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="16" t="s">
+      <c r="H36" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -7637,7 +7600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59">
       <c r="A37" s="3" t="s">
         <v>86</v>
       </c>
@@ -7816,7 +7779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59">
       <c r="A38" s="3" t="s">
         <v>86</v>
       </c>
@@ -7995,7 +7958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59">
       <c r="A39" s="3" t="s">
         <v>86</v>
       </c>
@@ -8020,6 +7983,7 @@
       <c r="H39" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
         <v>114</v>
       </c>
@@ -8171,7 +8135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59">
       <c r="A40" s="3" t="s">
         <v>86</v>
       </c>
@@ -8196,6 +8160,7 @@
       <c r="H40" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
         <v>114</v>
       </c>
@@ -8347,7 +8312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -8372,6 +8337,7 @@
       <c r="H41" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="3" t="s">
         <v>114</v>
       </c>
@@ -8523,7 +8489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -8548,6 +8514,7 @@
       <c r="H42" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="3" t="s">
         <v>114</v>
       </c>
@@ -8699,7 +8666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59">
       <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
@@ -8878,7 +8845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -9057,7 +9024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
@@ -9236,7 +9203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59">
       <c r="A46" s="3" t="s">
         <v>86</v>
       </c>
@@ -9415,7 +9382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
@@ -9594,3497 +9561,3291 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+    <row r="48" spans="1:59">
+      <c r="A48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="15">
+        <v>255</v>
+      </c>
+      <c r="F48" s="15">
+        <v>1</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L48" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48">
+        <v>50.4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48">
+        <v>32.9</v>
+      </c>
+      <c r="P48" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q48">
+        <v>8.4</v>
+      </c>
+      <c r="R48" t="s">
+        <v>61</v>
+      </c>
+      <c r="S48" s="17">
+        <v>8.4</v>
+      </c>
+      <c r="T48" t="s">
+        <v>93</v>
+      </c>
+      <c r="U48" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" t="s">
+        <v>173</v>
+      </c>
+      <c r="W48" t="s">
+        <v>174</v>
+      </c>
+      <c r="X48" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y48">
+        <v>16</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA48">
+        <v>17</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC48">
+        <v>1000</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57">
+      <c r="A49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="15">
+        <v>221</v>
+      </c>
+      <c r="F49" s="15">
+        <v>2</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49">
+        <v>41.4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>177</v>
+      </c>
+      <c r="O49">
+        <v>49.6</v>
+      </c>
+      <c r="P49" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q49">
+        <v>9</v>
+      </c>
+      <c r="R49" t="s">
+        <v>88</v>
+      </c>
+      <c r="S49" t="s">
+        <v>88</v>
+      </c>
+      <c r="T49" t="s">
+        <v>93</v>
+      </c>
+      <c r="U49" t="s">
+        <v>57</v>
+      </c>
+      <c r="V49" t="s">
+        <v>173</v>
+      </c>
+      <c r="W49" t="s">
+        <v>179</v>
+      </c>
+      <c r="X49" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y49">
+        <v>17</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA49">
+        <v>17</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC49">
+        <v>1200</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57">
+      <c r="A50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="15">
+        <v>234</v>
+      </c>
+      <c r="F50" s="15">
+        <v>3</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50">
+        <v>59.1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50">
+        <v>40.9</v>
+      </c>
+      <c r="P50" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>88</v>
+      </c>
+      <c r="R50" t="s">
+        <v>88</v>
+      </c>
+      <c r="S50" t="s">
+        <v>88</v>
+      </c>
+      <c r="T50" t="s">
+        <v>93</v>
+      </c>
+      <c r="U50" t="s">
+        <v>57</v>
+      </c>
+      <c r="V50" t="s">
+        <v>175</v>
+      </c>
+      <c r="W50" t="s">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y50">
+        <v>22</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA50">
+        <v>19</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC50">
+        <v>1230</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57">
+      <c r="A51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="15">
+        <v>219</v>
+      </c>
+      <c r="F51" s="15">
+        <v>4</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L51" t="s">
+        <v>68</v>
+      </c>
+      <c r="M51">
+        <v>67</v>
+      </c>
+      <c r="N51" t="s">
+        <v>182</v>
+      </c>
+      <c r="O51">
+        <v>33</v>
+      </c>
+      <c r="P51" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>88</v>
+      </c>
+      <c r="R51" t="s">
+        <v>88</v>
+      </c>
+      <c r="S51" t="s">
+        <v>88</v>
+      </c>
+      <c r="T51" t="s">
+        <v>93</v>
+      </c>
+      <c r="U51" t="s">
+        <v>57</v>
+      </c>
+      <c r="V51" t="s">
+        <v>175</v>
+      </c>
+      <c r="W51" t="s">
+        <v>38</v>
+      </c>
+      <c r="X51" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y51">
+        <v>18</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA51">
+        <v>18</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX51" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY51" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ51" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA51" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB51" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC51">
+        <v>1200</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57">
+      <c r="A52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="15">
+        <v>260</v>
+      </c>
+      <c r="F52" s="15">
+        <v>1</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L52" t="s">
+        <v>61</v>
+      </c>
+      <c r="M52">
+        <v>50.4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="P52" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q52">
+        <v>16.8</v>
+      </c>
+      <c r="R52" t="s">
+        <v>88</v>
+      </c>
+      <c r="S52" t="s">
+        <v>88</v>
+      </c>
+      <c r="T52" t="s">
+        <v>93</v>
+      </c>
+      <c r="U52" t="s">
+        <v>57</v>
+      </c>
+      <c r="V52" t="s">
+        <v>175</v>
+      </c>
+      <c r="W52" t="s">
+        <v>185</v>
+      </c>
+      <c r="X52" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y52">
+        <v>22</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA52">
+        <v>18</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC52">
+        <v>1145</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57">
+      <c r="A53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="15">
+        <v>196</v>
+      </c>
+      <c r="F53" s="15">
+        <v>2</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L53" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="N53" t="s">
+        <v>187</v>
+      </c>
+      <c r="O53">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="P53" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>88</v>
+      </c>
+      <c r="R53" t="s">
+        <v>88</v>
+      </c>
+      <c r="S53" t="s">
+        <v>88</v>
+      </c>
+      <c r="T53" t="s">
+        <v>93</v>
+      </c>
+      <c r="U53" t="s">
+        <v>57</v>
+      </c>
+      <c r="V53" t="s">
+        <v>173</v>
+      </c>
+      <c r="W53" t="s">
+        <v>174</v>
+      </c>
+      <c r="X53" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y53">
+        <v>19</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA53">
+        <v>18</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC53">
+        <v>1330</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57">
+      <c r="A54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="15">
+        <v>259</v>
+      </c>
+      <c r="F54" s="15">
+        <v>3</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L54" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54">
+        <v>92.4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>188</v>
+      </c>
+      <c r="O54">
+        <v>7.6</v>
+      </c>
+      <c r="P54" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>88</v>
+      </c>
+      <c r="R54" t="s">
+        <v>88</v>
+      </c>
+      <c r="S54" t="s">
+        <v>88</v>
+      </c>
+      <c r="T54" t="s">
+        <v>93</v>
+      </c>
+      <c r="U54" t="s">
+        <v>57</v>
+      </c>
+      <c r="V54" t="s">
+        <v>173</v>
+      </c>
+      <c r="W54" t="s">
+        <v>189</v>
+      </c>
+      <c r="X54" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y54">
+        <v>17</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA54">
+        <v>13</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC54">
+        <v>1245</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57">
+      <c r="A55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="15">
+        <v>253</v>
+      </c>
+      <c r="F55" s="15">
+        <v>4</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M55">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="N55" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55">
+        <v>25.1</v>
+      </c>
+      <c r="P55" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>88</v>
+      </c>
+      <c r="R55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S55" t="s">
+        <v>88</v>
+      </c>
+      <c r="T55" t="s">
+        <v>93</v>
+      </c>
+      <c r="U55" t="s">
+        <v>57</v>
+      </c>
+      <c r="V55" t="s">
+        <v>173</v>
+      </c>
+      <c r="W55" t="s">
+        <v>38</v>
+      </c>
+      <c r="X55" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y55">
+        <v>16</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA55">
+        <v>17</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX55" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY55" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ55" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA55" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB55" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC55">
+        <v>1330</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57">
+      <c r="A56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="15">
+        <v>211</v>
+      </c>
+      <c r="F56" s="15">
+        <v>1</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L56" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56">
+        <v>61.7</v>
+      </c>
+      <c r="N56" t="s">
+        <v>190</v>
+      </c>
+      <c r="O56" s="20">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="P56" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>88</v>
+      </c>
+      <c r="R56" t="s">
+        <v>88</v>
+      </c>
+      <c r="S56" t="s">
+        <v>88</v>
+      </c>
+      <c r="T56" t="s">
+        <v>93</v>
+      </c>
+      <c r="U56" t="s">
+        <v>57</v>
+      </c>
+      <c r="V56" t="s">
+        <v>173</v>
+      </c>
+      <c r="W56" t="s">
+        <v>174</v>
+      </c>
+      <c r="X56" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y56">
+        <v>13</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA56">
+        <v>11</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ56">
+        <v>5</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX56" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY56" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ56" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA56" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB56" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC56">
+        <v>1100</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57">
+      <c r="A57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="15">
+        <v>205</v>
+      </c>
+      <c r="F57" s="15">
+        <v>2</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L57" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57">
+        <v>76.8</v>
+      </c>
+      <c r="N57" t="s">
+        <v>61</v>
+      </c>
+      <c r="O57">
+        <v>23.2</v>
+      </c>
+      <c r="P57" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>88</v>
+      </c>
+      <c r="R57" t="s">
+        <v>88</v>
+      </c>
+      <c r="S57" t="s">
+        <v>88</v>
+      </c>
+      <c r="T57" t="s">
+        <v>93</v>
+      </c>
+      <c r="U57" t="s">
+        <v>57</v>
+      </c>
+      <c r="V57" t="s">
+        <v>173</v>
+      </c>
+      <c r="W57" t="s">
+        <v>191</v>
+      </c>
+      <c r="X57" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y57">
+        <v>20</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA57">
+        <v>14</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ57">
+        <v>3</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC57">
+        <v>1000</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57">
+      <c r="A58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="3">
+        <v>224</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L58" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58">
+        <v>73.2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>68</v>
+      </c>
+      <c r="O58">
+        <v>26.8</v>
+      </c>
+      <c r="P58" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>88</v>
+      </c>
+      <c r="R58" t="s">
+        <v>88</v>
+      </c>
+      <c r="S58" t="s">
+        <v>88</v>
+      </c>
+      <c r="T58" t="s">
+        <v>93</v>
+      </c>
+      <c r="U58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V58" t="s">
+        <v>173</v>
+      </c>
+      <c r="W58" t="s">
+        <v>38</v>
+      </c>
+      <c r="X58" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y58" s="19">
+        <v>18</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA58" s="19">
+        <v>17</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX58" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY58" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ58" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA58" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB58" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC58" s="21">
+        <v>1430</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57">
+      <c r="A59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="15">
+        <v>389</v>
+      </c>
+      <c r="F59" s="15">
+        <v>1</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L59" t="s">
+        <v>193</v>
+      </c>
+      <c r="M59">
+        <v>62.4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>66</v>
+      </c>
+      <c r="O59">
+        <v>37.6</v>
+      </c>
+      <c r="P59" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>88</v>
+      </c>
+      <c r="R59" t="s">
+        <v>88</v>
+      </c>
+      <c r="S59" t="s">
+        <v>88</v>
+      </c>
+      <c r="T59" t="s">
+        <v>94</v>
+      </c>
+      <c r="U59" t="s">
+        <v>57</v>
+      </c>
+      <c r="V59" t="s">
+        <v>173</v>
+      </c>
+      <c r="W59" t="s">
+        <v>62</v>
+      </c>
+      <c r="X59" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y59">
+        <v>21.5</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA59">
+        <v>21.5</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC59">
+        <v>1530</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57">
+      <c r="A60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="15">
+        <v>388</v>
+      </c>
+      <c r="F60" s="15">
+        <v>2</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L60" t="s">
+        <v>196</v>
+      </c>
+      <c r="M60">
+        <v>55.7</v>
+      </c>
+      <c r="N60" t="s">
+        <v>66</v>
+      </c>
+      <c r="O60">
+        <v>44.3</v>
+      </c>
+      <c r="P60" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>88</v>
+      </c>
+      <c r="R60" t="s">
+        <v>88</v>
+      </c>
+      <c r="S60" t="s">
+        <v>88</v>
+      </c>
+      <c r="T60" t="s">
+        <v>93</v>
+      </c>
+      <c r="U60" t="s">
+        <v>57</v>
+      </c>
+      <c r="V60" t="s">
+        <v>98</v>
+      </c>
+      <c r="W60" t="s">
+        <v>62</v>
+      </c>
+      <c r="X60" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y60">
+        <v>16</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA60">
+        <v>17</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ60">
+        <v>4</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX60" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY60" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ60" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA60" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB60" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC60">
+        <v>1030</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57">
+      <c r="A61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="15">
+        <v>403</v>
+      </c>
+      <c r="F61" s="15">
+        <v>3</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L61" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61">
+        <v>57.5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>197</v>
+      </c>
+      <c r="O61">
+        <v>29.5</v>
+      </c>
+      <c r="P61" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q61">
+        <v>13</v>
+      </c>
+      <c r="R61" t="s">
+        <v>88</v>
+      </c>
+      <c r="S61" t="s">
+        <v>88</v>
+      </c>
+      <c r="T61" t="s">
+        <v>93</v>
+      </c>
+      <c r="U61" t="s">
+        <v>57</v>
+      </c>
+      <c r="V61" t="s">
+        <v>98</v>
+      </c>
+      <c r="W61" t="s">
+        <v>62</v>
+      </c>
+      <c r="X61" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y61">
+        <v>21</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA61">
+        <v>17</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC61">
+        <v>1300</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57">
+      <c r="A62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="15">
+        <v>405</v>
+      </c>
+      <c r="F62" s="15">
+        <v>4</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L62" t="s">
+        <v>182</v>
+      </c>
+      <c r="M62">
+        <v>58.2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62">
+        <v>25</v>
+      </c>
+      <c r="P62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q62">
+        <v>16.8</v>
+      </c>
+      <c r="R62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S62" t="s">
+        <v>88</v>
+      </c>
+      <c r="T62" t="s">
+        <v>93</v>
+      </c>
+      <c r="U62" t="s">
+        <v>57</v>
+      </c>
+      <c r="V62" t="s">
+        <v>175</v>
+      </c>
+      <c r="W62" t="s">
+        <v>199</v>
+      </c>
+      <c r="X62" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y62">
+        <v>14</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA62">
+        <v>19</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX62" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY62" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ62" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA62" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB62" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC62">
+        <v>1000</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57">
+      <c r="A63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="15">
+        <v>375</v>
+      </c>
+      <c r="F63" s="15">
+        <v>1</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L63" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="N63" t="s">
+        <v>200</v>
+      </c>
+      <c r="O63">
+        <v>25.9</v>
+      </c>
+      <c r="P63" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>88</v>
+      </c>
+      <c r="R63" t="s">
+        <v>88</v>
+      </c>
+      <c r="S63" t="s">
+        <v>88</v>
+      </c>
+      <c r="T63" t="s">
+        <v>94</v>
+      </c>
+      <c r="U63" t="s">
+        <v>57</v>
+      </c>
+      <c r="V63" t="s">
+        <v>175</v>
+      </c>
+      <c r="W63" t="s">
+        <v>201</v>
+      </c>
+      <c r="X63" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y63">
+        <v>17</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA63">
+        <v>17</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC63">
+        <v>1210</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57">
+      <c r="A64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="15">
+        <v>392</v>
+      </c>
+      <c r="F64" s="15">
+        <v>2</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L64" t="s">
+        <v>202</v>
+      </c>
+      <c r="M64">
+        <v>65.2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64">
+        <v>25</v>
+      </c>
+      <c r="P64" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q64">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R64" t="s">
+        <v>88</v>
+      </c>
+      <c r="S64" t="s">
+        <v>88</v>
+      </c>
+      <c r="T64" t="s">
+        <v>94</v>
+      </c>
+      <c r="U64" t="s">
+        <v>57</v>
+      </c>
+      <c r="V64" t="s">
+        <v>98</v>
+      </c>
+      <c r="W64" t="s">
+        <v>62</v>
+      </c>
+      <c r="X64" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y64" s="19">
+        <v>20</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA64">
+        <v>14</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX64" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY64" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ64" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA64" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB64" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC64">
+        <v>1000</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:57">
+      <c r="A65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="3">
+        <v>376</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L65" t="s">
+        <v>202</v>
+      </c>
+      <c r="M65" s="19">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="N65" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="O65" s="19">
+        <v>25.1</v>
+      </c>
+      <c r="P65" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>88</v>
+      </c>
+      <c r="R65" t="s">
+        <v>88</v>
+      </c>
+      <c r="S65" t="s">
+        <v>88</v>
+      </c>
+      <c r="T65" t="s">
+        <v>93</v>
+      </c>
+      <c r="U65" t="s">
+        <v>57</v>
+      </c>
+      <c r="V65" t="s">
+        <v>98</v>
+      </c>
+      <c r="W65" t="s">
+        <v>179</v>
+      </c>
+      <c r="X65" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y65">
+        <v>21</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA65">
+        <v>18</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC65">
+        <v>1300</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57">
+      <c r="A66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="3">
+        <v>426</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L66" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66">
+        <v>81.5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>204</v>
+      </c>
+      <c r="O66">
+        <v>18.5</v>
+      </c>
+      <c r="P66" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>88</v>
+      </c>
+      <c r="R66" t="s">
+        <v>88</v>
+      </c>
+      <c r="S66" t="s">
+        <v>88</v>
+      </c>
+      <c r="T66" t="s">
+        <v>93</v>
+      </c>
+      <c r="U66" t="s">
+        <v>57</v>
+      </c>
+      <c r="V66" t="s">
+        <v>98</v>
+      </c>
+      <c r="W66" t="s">
+        <v>62</v>
+      </c>
+      <c r="X66" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y66">
+        <v>13</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA66">
+        <v>13</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX66" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY66" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ66" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA66" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB66" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC66" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE66" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CF47">
-    <sortCondition ref="B2:B47"/>
-  </sortState>
-  <dataConsolidate/>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:59" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="16">
-        <v>255</v>
-      </c>
-      <c r="F2" s="16">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2">
-        <v>50.4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2">
-        <v>32.9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2">
-        <v>8.4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="18">
-        <v>8.4</v>
-      </c>
-      <c r="T2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>173</v>
-      </c>
-      <c r="W2" t="s">
-        <v>174</v>
-      </c>
-      <c r="X2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y2">
-        <v>16</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA2">
-        <v>17</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC2">
-        <v>1000</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16">
-        <v>221</v>
-      </c>
-      <c r="F3" s="16">
-        <v>2</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>41.4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O3">
-        <v>49.6</v>
-      </c>
-      <c r="P3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q3">
-        <v>9</v>
-      </c>
-      <c r="R3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" t="s">
-        <v>173</v>
-      </c>
-      <c r="W3" t="s">
-        <v>179</v>
-      </c>
-      <c r="X3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y3">
-        <v>17</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA3">
-        <v>17</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ3">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC3">
-        <v>1200</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="16">
-        <v>234</v>
-      </c>
-      <c r="F4" s="16">
-        <v>3</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>59.1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4">
-        <v>40.9</v>
-      </c>
-      <c r="P4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R4" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" t="s">
-        <v>93</v>
-      </c>
-      <c r="U4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" t="s">
-        <v>175</v>
-      </c>
-      <c r="W4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y4">
-        <v>22</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA4">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC4">
-        <v>1230</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="16">
-        <v>219</v>
-      </c>
-      <c r="F5" s="16">
-        <v>4</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5">
-        <v>67</v>
-      </c>
-      <c r="N5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O5">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T5" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" t="s">
-        <v>175</v>
-      </c>
-      <c r="W5" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y5">
-        <v>18</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA5">
-        <v>18</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC5">
-        <v>1200</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="16">
-        <v>260</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6">
-        <v>50.4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6">
-        <v>16.8</v>
-      </c>
-      <c r="R6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U6" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" t="s">
-        <v>175</v>
-      </c>
-      <c r="W6" t="s">
-        <v>185</v>
-      </c>
-      <c r="X6" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y6">
-        <v>22</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6">
-        <v>18</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC6">
-        <v>1145</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="16">
-        <v>196</v>
-      </c>
-      <c r="F7" s="16">
-        <v>2</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="N7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O7">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="P7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" t="s">
-        <v>88</v>
-      </c>
-      <c r="S7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
-      </c>
-      <c r="V7" t="s">
-        <v>173</v>
-      </c>
-      <c r="W7" t="s">
-        <v>174</v>
-      </c>
-      <c r="X7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y7">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA7">
-        <v>18</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC7">
-        <v>1330</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="16">
-        <v>259</v>
-      </c>
-      <c r="F8" s="16">
-        <v>3</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8">
-        <v>92.4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>188</v>
-      </c>
-      <c r="O8">
-        <v>7.6</v>
-      </c>
-      <c r="P8" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>88</v>
-      </c>
-      <c r="R8" t="s">
-        <v>88</v>
-      </c>
-      <c r="S8" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" t="s">
-        <v>57</v>
-      </c>
-      <c r="V8" t="s">
-        <v>173</v>
-      </c>
-      <c r="W8" t="s">
-        <v>189</v>
-      </c>
-      <c r="X8" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y8">
-        <v>17</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA8">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ8">
-        <v>2</v>
-      </c>
-      <c r="AK8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC8">
-        <v>1245</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="16">
-        <v>253</v>
-      </c>
-      <c r="F9" s="16">
-        <v>4</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="N9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9">
-        <v>25.1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>88</v>
-      </c>
-      <c r="R9" t="s">
-        <v>88</v>
-      </c>
-      <c r="S9" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" t="s">
-        <v>93</v>
-      </c>
-      <c r="U9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V9" t="s">
-        <v>173</v>
-      </c>
-      <c r="W9" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y9">
-        <v>16</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA9">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC9">
-        <v>1330</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="16">
-        <v>211</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10">
-        <v>61.7</v>
-      </c>
-      <c r="N10" t="s">
-        <v>190</v>
-      </c>
-      <c r="O10" s="21">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="P10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>88</v>
-      </c>
-      <c r="R10" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>88</v>
-      </c>
-      <c r="T10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V10" t="s">
-        <v>173</v>
-      </c>
-      <c r="W10" t="s">
-        <v>174</v>
-      </c>
-      <c r="X10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y10">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA10">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ10">
-        <v>5</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC10">
-        <v>1100</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="16">
-        <v>205</v>
-      </c>
-      <c r="F11" s="16">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11">
-        <v>76.8</v>
-      </c>
-      <c r="N11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11">
-        <v>23.2</v>
-      </c>
-      <c r="P11" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" t="s">
-        <v>88</v>
-      </c>
-      <c r="S11" t="s">
-        <v>88</v>
-      </c>
-      <c r="T11" t="s">
-        <v>93</v>
-      </c>
-      <c r="U11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V11" t="s">
-        <v>173</v>
-      </c>
-      <c r="W11" t="s">
-        <v>191</v>
-      </c>
-      <c r="X11" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y11">
-        <v>20</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA11">
-        <v>14</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ11">
-        <v>3</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC11">
-        <v>1000</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="3">
-        <v>224</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12">
-        <v>73.2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12">
-        <v>26.8</v>
-      </c>
-      <c r="P12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>88</v>
-      </c>
-      <c r="R12" t="s">
-        <v>88</v>
-      </c>
-      <c r="S12" t="s">
-        <v>88</v>
-      </c>
-      <c r="T12" t="s">
-        <v>93</v>
-      </c>
-      <c r="U12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V12" t="s">
-        <v>173</v>
-      </c>
-      <c r="W12" t="s">
-        <v>38</v>
-      </c>
-      <c r="X12" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>18</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA12" s="20">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC12" s="22">
-        <v>1430</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="16">
-        <v>389</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" t="s">
-        <v>193</v>
-      </c>
-      <c r="M13">
-        <v>62.4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13">
-        <v>37.6</v>
-      </c>
-      <c r="P13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" t="s">
-        <v>88</v>
-      </c>
-      <c r="T13" t="s">
-        <v>94</v>
-      </c>
-      <c r="U13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V13" t="s">
-        <v>173</v>
-      </c>
-      <c r="W13" t="s">
-        <v>62</v>
-      </c>
-      <c r="X13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y13">
-        <v>21.5</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA13">
-        <v>21.5</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC13">
-        <v>1530</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="16">
-        <v>388</v>
-      </c>
-      <c r="F14" s="16">
-        <v>2</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" t="s">
-        <v>196</v>
-      </c>
-      <c r="M14">
-        <v>55.7</v>
-      </c>
-      <c r="N14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14">
-        <v>44.3</v>
-      </c>
-      <c r="P14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>88</v>
-      </c>
-      <c r="R14" t="s">
-        <v>88</v>
-      </c>
-      <c r="S14" t="s">
-        <v>88</v>
-      </c>
-      <c r="T14" t="s">
-        <v>93</v>
-      </c>
-      <c r="U14" t="s">
-        <v>57</v>
-      </c>
-      <c r="V14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W14" t="s">
-        <v>62</v>
-      </c>
-      <c r="X14" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y14">
-        <v>16</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA14">
-        <v>17</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ14">
-        <v>4</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC14">
-        <v>1030</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="16">
-        <v>403</v>
-      </c>
-      <c r="F15" s="16">
-        <v>3</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15">
-        <v>57.5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>197</v>
-      </c>
-      <c r="O15">
-        <v>29.5</v>
-      </c>
-      <c r="P15" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
-      </c>
-      <c r="R15" t="s">
-        <v>88</v>
-      </c>
-      <c r="S15" t="s">
-        <v>88</v>
-      </c>
-      <c r="T15" t="s">
-        <v>93</v>
-      </c>
-      <c r="U15" t="s">
-        <v>57</v>
-      </c>
-      <c r="V15" t="s">
-        <v>98</v>
-      </c>
-      <c r="W15" t="s">
-        <v>62</v>
-      </c>
-      <c r="X15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y15">
-        <v>21</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA15">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC15">
-        <v>1300</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="16">
-        <v>405</v>
-      </c>
-      <c r="F16" s="16">
-        <v>4</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L16" t="s">
-        <v>182</v>
-      </c>
-      <c r="M16">
-        <v>58.2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16">
-        <v>25</v>
-      </c>
-      <c r="P16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16">
-        <v>16.8</v>
-      </c>
-      <c r="R16" t="s">
-        <v>88</v>
-      </c>
-      <c r="S16" t="s">
-        <v>88</v>
-      </c>
-      <c r="T16" t="s">
-        <v>93</v>
-      </c>
-      <c r="U16" t="s">
-        <v>57</v>
-      </c>
-      <c r="V16" t="s">
-        <v>175</v>
-      </c>
-      <c r="W16" t="s">
-        <v>199</v>
-      </c>
-      <c r="X16" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y16">
-        <v>14</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA16">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC16">
-        <v>1000</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="16">
-        <v>375</v>
-      </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="N17" t="s">
-        <v>200</v>
-      </c>
-      <c r="O17">
-        <v>25.9</v>
-      </c>
-      <c r="P17" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>88</v>
-      </c>
-      <c r="R17" t="s">
-        <v>88</v>
-      </c>
-      <c r="S17" t="s">
-        <v>88</v>
-      </c>
-      <c r="T17" t="s">
-        <v>94</v>
-      </c>
-      <c r="U17" t="s">
-        <v>57</v>
-      </c>
-      <c r="V17" t="s">
-        <v>175</v>
-      </c>
-      <c r="W17" t="s">
-        <v>201</v>
-      </c>
-      <c r="X17" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y17">
-        <v>17</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA17">
-        <v>17</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC17">
-        <v>1210</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="16">
-        <v>392</v>
-      </c>
-      <c r="F18" s="16">
-        <v>2</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L18" t="s">
-        <v>202</v>
-      </c>
-      <c r="M18">
-        <v>65.2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18">
-        <v>25</v>
-      </c>
-      <c r="P18" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q18">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="R18" t="s">
-        <v>88</v>
-      </c>
-      <c r="S18" t="s">
-        <v>88</v>
-      </c>
-      <c r="T18" t="s">
-        <v>94</v>
-      </c>
-      <c r="U18" t="s">
-        <v>57</v>
-      </c>
-      <c r="V18" t="s">
-        <v>98</v>
-      </c>
-      <c r="W18" t="s">
-        <v>62</v>
-      </c>
-      <c r="X18" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y18" s="20">
-        <v>20</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA18">
-        <v>14</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC18">
-        <v>1000</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="3">
-        <v>376</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L19" t="s">
-        <v>202</v>
-      </c>
-      <c r="M19" s="20">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="O19" s="20">
-        <v>25.1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>88</v>
-      </c>
-      <c r="R19" t="s">
-        <v>88</v>
-      </c>
-      <c r="S19" t="s">
-        <v>88</v>
-      </c>
-      <c r="T19" t="s">
-        <v>93</v>
-      </c>
-      <c r="U19" t="s">
-        <v>57</v>
-      </c>
-      <c r="V19" t="s">
-        <v>98</v>
-      </c>
-      <c r="W19" t="s">
-        <v>179</v>
-      </c>
-      <c r="X19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y19">
-        <v>21</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA19">
-        <v>18</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC19">
-        <v>1300</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3">
-        <v>426</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20">
-        <v>81.5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>204</v>
-      </c>
-      <c r="O20">
-        <v>18.5</v>
-      </c>
-      <c r="P20" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>88</v>
-      </c>
-      <c r="R20" t="s">
-        <v>88</v>
-      </c>
-      <c r="S20" t="s">
-        <v>88</v>
-      </c>
-      <c r="T20" t="s">
-        <v>93</v>
-      </c>
-      <c r="U20" t="s">
-        <v>57</v>
-      </c>
-      <c r="V20" t="s">
-        <v>98</v>
-      </c>
-      <c r="W20" t="s">
-        <v>62</v>
-      </c>
-      <c r="X20" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y20">
-        <v>13</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA20">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC20" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="S2">
+  <conditionalFormatting sqref="S48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/processed_data/participants_cleaned/LLL_Liv_Participants.xlsx
+++ b/processed_data/participants_cleaned/LLL_Liv_Participants.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Combined" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -312,9 +312,6 @@
     <t>MacArthur_ladder</t>
   </si>
   <si>
-    <t>partcipant_gender</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>incomplete</t>
+  </si>
+  <si>
+    <t>participant_gender</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1172,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:BG66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1253,10 +1253,10 @@
         <v>95</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>16</v>
@@ -1277,7 +1277,7 @@
         <v>21</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>22</v>
@@ -1295,31 +1295,31 @@
         <v>26</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>42</v>
@@ -1372,7 +1372,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
@@ -1396,7 +1396,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>91</v>
@@ -1430,19 +1430,19 @@
         <v>57</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="3">
         <v>21</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA2" s="3">
         <v>14</v>
@@ -1454,10 +1454,10 @@
         <v>88</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>30</v>
@@ -1508,7 +1508,7 @@
         <v>57</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>58</v>
@@ -1549,7 +1549,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -1570,10 +1570,10 @@
         <v>88</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>91</v>
@@ -1609,19 +1609,19 @@
         <v>57</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y3" s="3">
         <v>21</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA3" s="3">
         <v>17</v>
@@ -1633,10 +1633,10 @@
         <v>88</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>30</v>
@@ -1687,7 +1687,7 @@
         <v>57</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>58</v>
@@ -1728,7 +1728,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>91</v>
@@ -1786,19 +1786,19 @@
         <v>57</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y4" s="3">
         <v>21</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA4" s="3">
         <v>17</v>
@@ -1810,10 +1810,10 @@
         <v>88</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>30</v>
@@ -1864,7 +1864,7 @@
         <v>57</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW4" s="3" t="s">
         <v>58</v>
@@ -1905,7 +1905,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -1929,7 +1929,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>91</v>
@@ -1965,19 +1965,19 @@
         <v>57</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y5" s="3">
         <v>14</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA5" s="3">
         <v>13</v>
@@ -1989,10 +1989,10 @@
         <v>88</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>30</v>
@@ -2010,7 +2010,7 @@
         <v>23</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>88</v>
@@ -2043,7 +2043,7 @@
         <v>57</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW5" s="3" t="s">
         <v>58</v>
@@ -2084,7 +2084,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
@@ -2099,16 +2099,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>91</v>
@@ -2144,19 +2144,19 @@
         <v>57</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y6" s="3">
         <v>21</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA6" s="3">
         <v>16</v>
@@ -2168,10 +2168,10 @@
         <v>88</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>30</v>
@@ -2189,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL6" s="3" t="s">
         <v>88</v>
@@ -2222,7 +2222,7 @@
         <v>57</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW6" s="3" t="s">
         <v>58</v>
@@ -2263,7 +2263,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>91</v>
@@ -2321,19 +2321,19 @@
         <v>57</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y7" s="3">
         <v>21</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA7" s="3">
         <v>15</v>
@@ -2345,10 +2345,10 @@
         <v>88</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>30</v>
@@ -2366,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL7" s="3" t="s">
         <v>88</v>
@@ -2399,7 +2399,7 @@
         <v>57</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW7" s="3" t="s">
         <v>58</v>
@@ -2440,7 +2440,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>91</v>
@@ -2498,13 +2498,13 @@
         <v>57</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y8" s="3">
         <v>17</v>
@@ -2522,10 +2522,10 @@
         <v>88</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>30</v>
@@ -2576,7 +2576,7 @@
         <v>57</v>
       </c>
       <c r="AV8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW8" s="3" t="s">
         <v>58</v>
@@ -2617,7 +2617,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -2632,16 +2632,16 @@
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>91</v>
@@ -2677,19 +2677,19 @@
         <v>57</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="3">
         <v>17</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA9" s="3">
         <v>12</v>
@@ -2701,10 +2701,10 @@
         <v>88</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>30</v>
@@ -2755,7 +2755,7 @@
         <v>57</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW9" s="3" t="s">
         <v>58</v>
@@ -2796,7 +2796,7 @@
         <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
@@ -2811,16 +2811,16 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>91</v>
@@ -2856,19 +2856,19 @@
         <v>57</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y10" s="3">
         <v>20</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA10" s="3">
         <v>16</v>
@@ -2880,10 +2880,10 @@
         <v>88</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF10" s="3" t="s">
         <v>30</v>
@@ -2934,7 +2934,7 @@
         <v>57</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW10" s="3" t="s">
         <v>58</v>
@@ -2958,10 +2958,10 @@
         <v>1100</v>
       </c>
       <c r="BD10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE10" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE10" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF10" s="3" t="s">
         <v>57</v>
@@ -2975,7 +2975,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -2996,10 +2996,10 @@
         <v>88</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>91</v>
@@ -3035,19 +3035,19 @@
         <v>57</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y11" s="3">
         <v>17</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA11" s="3">
         <v>16</v>
@@ -3059,10 +3059,10 @@
         <v>88</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>30</v>
@@ -3113,7 +3113,7 @@
         <v>57</v>
       </c>
       <c r="AV11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW11" s="3" t="s">
         <v>58</v>
@@ -3137,10 +3137,10 @@
         <v>1100</v>
       </c>
       <c r="BD11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE11" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF11" s="3" t="s">
         <v>57</v>
@@ -3154,7 +3154,7 @@
         <v>86</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -3169,16 +3169,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>91</v>
@@ -3214,19 +3214,19 @@
         <v>57</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y12" s="3">
         <v>25</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA12" s="3">
         <v>11</v>
@@ -3238,10 +3238,10 @@
         <v>88</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>30</v>
@@ -3259,7 +3259,7 @@
         <v>5</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL12" s="3" t="s">
         <v>88</v>
@@ -3292,7 +3292,7 @@
         <v>57</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW12" s="3" t="s">
         <v>58</v>
@@ -3316,10 +3316,10 @@
         <v>1200</v>
       </c>
       <c r="BD12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE12" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE12" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF12" s="3" t="s">
         <v>57</v>
@@ -3333,7 +3333,7 @@
         <v>86</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -3348,16 +3348,16 @@
         <v>2</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>91</v>
@@ -3393,19 +3393,19 @@
         <v>57</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y13" s="3">
         <v>14</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA13" s="3">
         <v>12</v>
@@ -3417,10 +3417,10 @@
         <v>88</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF13" s="3" t="s">
         <v>30</v>
@@ -3438,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL13" s="3" t="s">
         <v>88</v>
@@ -3471,7 +3471,7 @@
         <v>57</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW13" s="3" t="s">
         <v>58</v>
@@ -3495,10 +3495,10 @@
         <v>1200</v>
       </c>
       <c r="BD13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE13" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE13" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF13" s="3" t="s">
         <v>57</v>
@@ -3512,7 +3512,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
@@ -3527,16 +3527,16 @@
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
@@ -3572,19 +3572,19 @@
         <v>57</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>79</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y14" s="3">
         <v>18</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA14" s="3">
         <v>17</v>
@@ -3596,10 +3596,10 @@
         <v>88</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>30</v>
@@ -3617,13 +3617,13 @@
         <v>6</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL14" s="3">
         <v>4</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN14" s="3" t="s">
         <v>88</v>
@@ -3650,7 +3650,7 @@
         <v>57</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW14" s="3" t="s">
         <v>58</v>
@@ -3677,7 +3677,7 @@
         <v>75</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF14" s="3" t="s">
         <v>57</v>
@@ -3691,7 +3691,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>91</v>
@@ -3749,19 +3749,19 @@
         <v>57</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>79</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y15" s="3">
         <v>17</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA15" s="3">
         <v>17</v>
@@ -3773,10 +3773,10 @@
         <v>88</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF15" s="3" t="s">
         <v>30</v>
@@ -3827,7 +3827,7 @@
         <v>57</v>
       </c>
       <c r="AV15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW15" s="3" t="s">
         <v>58</v>
@@ -3854,7 +3854,7 @@
         <v>75</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF15" s="3" t="s">
         <v>57</v>
@@ -3868,7 +3868,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>91</v>
@@ -3926,19 +3926,19 @@
         <v>57</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y16" s="3">
         <v>18</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA16" s="3">
         <v>18</v>
@@ -3950,10 +3950,10 @@
         <v>88</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF16" s="3" t="s">
         <v>30</v>
@@ -4004,7 +4004,7 @@
         <v>57</v>
       </c>
       <c r="AV16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW16" s="3" t="s">
         <v>58</v>
@@ -4045,7 +4045,7 @@
         <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>91</v>
@@ -4103,19 +4103,19 @@
         <v>57</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y17" s="3">
         <v>18</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA17" s="3">
         <v>18</v>
@@ -4127,10 +4127,10 @@
         <v>88</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF17" s="3" t="s">
         <v>30</v>
@@ -4148,13 +4148,13 @@
         <v>4</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL17" s="3">
         <v>2</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN17" s="3" t="s">
         <v>88</v>
@@ -4181,7 +4181,7 @@
         <v>57</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW17" s="3" t="s">
         <v>58</v>
@@ -4222,7 +4222,7 @@
         <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>27</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>91</v>
@@ -4280,19 +4280,19 @@
         <v>57</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y18" s="3">
         <v>17</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA18" s="3">
         <v>18</v>
@@ -4304,10 +4304,10 @@
         <v>88</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF18" s="3" t="s">
         <v>30</v>
@@ -4325,7 +4325,7 @@
         <v>2</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL18" s="3" t="s">
         <v>88</v>
@@ -4358,7 +4358,7 @@
         <v>57</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW18" s="3" t="s">
         <v>70</v>
@@ -4385,7 +4385,7 @@
         <v>83</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF18" s="3" t="s">
         <v>57</v>
@@ -4399,7 +4399,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>27</v>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>91</v>
@@ -4457,19 +4457,19 @@
         <v>57</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>85</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y19" s="3">
         <v>18</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA19" s="3">
         <v>18</v>
@@ -4481,10 +4481,10 @@
         <v>88</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF19" s="3" t="s">
         <v>30</v>
@@ -4502,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL19" s="3" t="s">
         <v>88</v>
@@ -4535,7 +4535,7 @@
         <v>57</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW19" s="3" t="s">
         <v>70</v>
@@ -4562,7 +4562,7 @@
         <v>83</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF19" s="3" t="s">
         <v>57</v>
@@ -4576,7 +4576,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>27</v>
@@ -4600,7 +4600,7 @@
         <v>63</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>91</v>
@@ -4636,19 +4636,19 @@
         <v>57</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y20" s="3">
         <v>19</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA20" s="3">
         <v>23</v>
@@ -4660,10 +4660,10 @@
         <v>88</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF20" s="3" t="s">
         <v>30</v>
@@ -4681,13 +4681,13 @@
         <v>9</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL20" s="3">
         <v>3</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN20" s="3" t="s">
         <v>88</v>
@@ -4714,7 +4714,7 @@
         <v>57</v>
       </c>
       <c r="AV20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW20" s="3" t="s">
         <v>58</v>
@@ -4755,7 +4755,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>27</v>
@@ -4779,7 +4779,7 @@
         <v>67</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>91</v>
@@ -4815,19 +4815,19 @@
         <v>57</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y21" s="3">
         <v>17</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA21" s="3">
         <v>21</v>
@@ -4839,10 +4839,10 @@
         <v>88</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF21" s="3" t="s">
         <v>30</v>
@@ -4860,13 +4860,13 @@
         <v>5</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL21" s="3">
         <v>3</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN21" s="3" t="s">
         <v>88</v>
@@ -4893,7 +4893,7 @@
         <v>57</v>
       </c>
       <c r="AV21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW21" s="3" t="s">
         <v>58</v>
@@ -4934,7 +4934,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -4955,10 +4955,10 @@
         <v>88</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>91</v>
@@ -4994,19 +4994,19 @@
         <v>57</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y22" s="3">
         <v>17</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA22" s="3">
         <v>17</v>
@@ -5018,10 +5018,10 @@
         <v>88</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF22" s="3" t="s">
         <v>30</v>
@@ -5072,7 +5072,7 @@
         <v>57</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW22" s="3" t="s">
         <v>58</v>
@@ -5113,7 +5113,7 @@
         <v>86</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>91</v>
@@ -5171,19 +5171,19 @@
         <v>57</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y23" s="3">
         <v>19</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA23" s="3">
         <v>16</v>
@@ -5195,10 +5195,10 @@
         <v>88</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF23" s="3" t="s">
         <v>30</v>
@@ -5249,7 +5249,7 @@
         <v>57</v>
       </c>
       <c r="AV23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW23" s="3" t="s">
         <v>58</v>
@@ -5290,7 +5290,7 @@
         <v>86</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -5314,7 +5314,7 @@
         <v>63</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>91</v>
@@ -5350,19 +5350,19 @@
         <v>57</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y24" s="3">
         <v>20</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA24" s="3">
         <v>15</v>
@@ -5374,10 +5374,10 @@
         <v>88</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF24" s="3" t="s">
         <v>30</v>
@@ -5428,7 +5428,7 @@
         <v>57</v>
       </c>
       <c r="AV24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW24" s="3" t="s">
         <v>58</v>
@@ -5469,7 +5469,7 @@
         <v>86</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>91</v>
@@ -5527,19 +5527,19 @@
         <v>57</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y25" s="3">
         <v>21</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA25" s="3">
         <v>13</v>
@@ -5551,10 +5551,10 @@
         <v>88</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF25" s="3" t="s">
         <v>30</v>
@@ -5605,7 +5605,7 @@
         <v>57</v>
       </c>
       <c r="AV25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW25" s="3" t="s">
         <v>70</v>
@@ -5629,10 +5629,10 @@
         <v>930</v>
       </c>
       <c r="BD25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE25" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE25" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF25" s="3" t="s">
         <v>57</v>
@@ -5646,7 +5646,7 @@
         <v>86</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
@@ -5670,7 +5670,7 @@
         <v>74</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>91</v>
@@ -5706,19 +5706,19 @@
         <v>57</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y26" s="3">
         <v>23</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA26" s="3">
         <v>22</v>
@@ -5730,10 +5730,10 @@
         <v>88</v>
       </c>
       <c r="AD26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF26" s="3" t="s">
         <v>30</v>
@@ -5784,7 +5784,7 @@
         <v>57</v>
       </c>
       <c r="AV26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW26" s="3" t="s">
         <v>58</v>
@@ -5808,10 +5808,10 @@
         <v>1030</v>
       </c>
       <c r="BD26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE26" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE26" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF26" s="3" t="s">
         <v>57</v>
@@ -5825,7 +5825,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>91</v>
@@ -5883,19 +5883,19 @@
         <v>57</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y27" s="3">
         <v>17</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA27" s="3">
         <v>15</v>
@@ -5907,10 +5907,10 @@
         <v>88</v>
       </c>
       <c r="AD27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF27" s="3" t="s">
         <v>30</v>
@@ -5928,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="AK27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL27" s="3" t="s">
         <v>88</v>
@@ -5961,7 +5961,7 @@
         <v>57</v>
       </c>
       <c r="AV27" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW27" s="3" t="s">
         <v>58</v>
@@ -5985,10 +5985,10 @@
         <v>1100</v>
       </c>
       <c r="BD27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE27" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE27" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF27" s="3" t="s">
         <v>57</v>
@@ -6002,7 +6002,7 @@
         <v>86</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -6023,10 +6023,10 @@
         <v>88</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>91</v>
@@ -6062,19 +6062,19 @@
         <v>57</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y28" s="3">
         <v>12</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA28" s="3">
         <v>17</v>
@@ -6086,10 +6086,10 @@
         <v>88</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF28" s="3" t="s">
         <v>30</v>
@@ -6140,7 +6140,7 @@
         <v>57</v>
       </c>
       <c r="AV28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW28" s="3" t="s">
         <v>58</v>
@@ -6164,10 +6164,10 @@
         <v>1100</v>
       </c>
       <c r="BD28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE28" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE28" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF28" s="3" t="s">
         <v>57</v>
@@ -6181,7 +6181,7 @@
         <v>86</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -6205,7 +6205,7 @@
         <v>76</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>91</v>
@@ -6241,19 +6241,19 @@
         <v>57</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y29" s="3">
         <v>19</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA29" s="3">
         <v>14</v>
@@ -6265,10 +6265,10 @@
         <v>88</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF29" s="3" t="s">
         <v>30</v>
@@ -6319,7 +6319,7 @@
         <v>57</v>
       </c>
       <c r="AV29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW29" s="3" t="s">
         <v>58</v>
@@ -6343,10 +6343,10 @@
         <v>1030</v>
       </c>
       <c r="BD29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE29" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE29" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF29" s="3" t="s">
         <v>57</v>
@@ -6360,7 +6360,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -6381,10 +6381,10 @@
         <v>88</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>91</v>
@@ -6420,19 +6420,19 @@
         <v>57</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y30" s="3">
         <v>18</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA30" s="3">
         <v>18</v>
@@ -6444,10 +6444,10 @@
         <v>88</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF30" s="3" t="s">
         <v>30</v>
@@ -6498,7 +6498,7 @@
         <v>57</v>
       </c>
       <c r="AV30" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW30" s="3" t="s">
         <v>58</v>
@@ -6522,10 +6522,10 @@
         <v>1130</v>
       </c>
       <c r="BD30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE30" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE30" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF30" s="3" t="s">
         <v>57</v>
@@ -6539,7 +6539,7 @@
         <v>86</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>91</v>
@@ -6597,19 +6597,19 @@
         <v>57</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y31" s="3">
         <v>13</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA31" s="3">
         <v>13</v>
@@ -6621,10 +6621,10 @@
         <v>88</v>
       </c>
       <c r="AD31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF31" s="3" t="s">
         <v>30</v>
@@ -6642,19 +6642,19 @@
         <v>9</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL31" s="3">
         <v>6</v>
       </c>
       <c r="AM31" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN31" s="3">
         <v>2</v>
       </c>
       <c r="AO31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AP31" s="3" t="s">
         <v>88</v>
@@ -6675,7 +6675,7 @@
         <v>57</v>
       </c>
       <c r="AV31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW31" s="3" t="s">
         <v>58</v>
@@ -6702,7 +6702,7 @@
         <v>75</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF31" s="3" t="s">
         <v>57</v>
@@ -6716,7 +6716,7 @@
         <v>86</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>91</v>
@@ -6774,19 +6774,19 @@
         <v>57</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y32" s="3">
         <v>18</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA32" s="3">
         <v>13</v>
@@ -6798,10 +6798,10 @@
         <v>88</v>
       </c>
       <c r="AD32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF32" s="3" t="s">
         <v>30</v>
@@ -6819,7 +6819,7 @@
         <v>8</v>
       </c>
       <c r="AK32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL32" s="3" t="s">
         <v>88</v>
@@ -6852,7 +6852,7 @@
         <v>57</v>
       </c>
       <c r="AV32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW32" s="3" t="s">
         <v>58</v>
@@ -6893,7 +6893,7 @@
         <v>86</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>91</v>
@@ -6951,19 +6951,19 @@
         <v>57</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y33" s="3">
         <v>13</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA33" s="3">
         <v>13</v>
@@ -6975,10 +6975,10 @@
         <v>88</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF33" s="3" t="s">
         <v>30</v>
@@ -6996,13 +6996,13 @@
         <v>11</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL33" s="3">
         <v>8</v>
       </c>
       <c r="AM33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN33" s="3" t="s">
         <v>88</v>
@@ -7029,7 +7029,7 @@
         <v>57</v>
       </c>
       <c r="AV33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW33" s="3" t="s">
         <v>58</v>
@@ -7070,7 +7070,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
@@ -7091,10 +7091,10 @@
         <v>88</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>91</v>
@@ -7130,19 +7130,19 @@
         <v>57</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y34" s="3">
         <v>17</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA34" s="3">
         <v>12</v>
@@ -7154,10 +7154,10 @@
         <v>88</v>
       </c>
       <c r="AD34" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF34" s="3" t="s">
         <v>30</v>
@@ -7175,25 +7175,25 @@
         <v>6</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL34" s="3">
         <v>19</v>
       </c>
       <c r="AM34" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN34" s="3">
         <v>18</v>
       </c>
       <c r="AO34" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AP34" s="3">
         <v>15</v>
       </c>
       <c r="AQ34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR34" s="3" t="s">
         <v>57</v>
@@ -7208,7 +7208,7 @@
         <v>57</v>
       </c>
       <c r="AV34" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW34" s="3" t="s">
         <v>70</v>
@@ -7235,7 +7235,7 @@
         <v>83</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF34" s="3" t="s">
         <v>57</v>
@@ -7249,7 +7249,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>27</v>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>91</v>
@@ -7307,19 +7307,19 @@
         <v>57</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>85</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y35" s="3">
         <v>18</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA35" s="3">
         <v>17</v>
@@ -7331,10 +7331,10 @@
         <v>88</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF35" s="3" t="s">
         <v>30</v>
@@ -7352,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="AK35" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL35" s="3" t="s">
         <v>88</v>
@@ -7385,7 +7385,7 @@
         <v>57</v>
       </c>
       <c r="AV35" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW35" s="3" t="s">
         <v>70</v>
@@ -7412,7 +7412,7 @@
         <v>83</v>
       </c>
       <c r="BE35" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF35" s="3" t="s">
         <v>57</v>
@@ -7426,7 +7426,7 @@
         <v>86</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>27</v>
@@ -7447,10 +7447,10 @@
         <v>88</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>91</v>
@@ -7486,19 +7486,19 @@
         <v>57</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y36" s="3">
         <v>18</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA36" s="3">
         <v>19</v>
@@ -7510,10 +7510,10 @@
         <v>88</v>
       </c>
       <c r="AD36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF36" s="3" t="s">
         <v>30</v>
@@ -7531,13 +7531,13 @@
         <v>5</v>
       </c>
       <c r="AK36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL36" s="3">
         <v>3</v>
       </c>
       <c r="AM36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN36" s="3" t="s">
         <v>88</v>
@@ -7564,7 +7564,7 @@
         <v>57</v>
       </c>
       <c r="AV36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW36" s="3" t="s">
         <v>70</v>
@@ -7591,7 +7591,7 @@
         <v>83</v>
       </c>
       <c r="BE36" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF36" s="3" t="s">
         <v>57</v>
@@ -7605,7 +7605,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>27</v>
@@ -7626,10 +7626,10 @@
         <v>88</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>91</v>
@@ -7665,13 +7665,13 @@
         <v>57</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y37" s="3">
         <v>14</v>
@@ -7689,10 +7689,10 @@
         <v>88</v>
       </c>
       <c r="AD37" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF37" s="3" t="s">
         <v>30</v>
@@ -7743,7 +7743,7 @@
         <v>57</v>
       </c>
       <c r="AV37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW37" s="3" t="s">
         <v>70</v>
@@ -7770,7 +7770,7 @@
         <v>83</v>
       </c>
       <c r="BE37" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF37" s="3" t="s">
         <v>57</v>
@@ -7784,7 +7784,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>27</v>
@@ -7805,10 +7805,10 @@
         <v>88</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>91</v>
@@ -7844,19 +7844,19 @@
         <v>57</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y38" s="3">
         <v>12</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA38" s="3">
         <v>14</v>
@@ -7868,10 +7868,10 @@
         <v>88</v>
       </c>
       <c r="AD38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF38" s="3" t="s">
         <v>30</v>
@@ -7922,7 +7922,7 @@
         <v>57</v>
       </c>
       <c r="AV38" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW38" s="3" t="s">
         <v>70</v>
@@ -7949,7 +7949,7 @@
         <v>83</v>
       </c>
       <c r="BE38" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF38" s="3" t="s">
         <v>57</v>
@@ -7963,7 +7963,7 @@
         <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>27</v>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>91</v>
@@ -8021,19 +8021,19 @@
         <v>57</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y39" s="3">
         <v>14</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA39" s="3">
         <v>12</v>
@@ -8045,10 +8045,10 @@
         <v>88</v>
       </c>
       <c r="AD39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF39" s="3" t="s">
         <v>30</v>
@@ -8066,7 +8066,7 @@
         <v>3</v>
       </c>
       <c r="AK39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL39" s="3" t="s">
         <v>88</v>
@@ -8099,7 +8099,7 @@
         <v>57</v>
       </c>
       <c r="AV39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW39" s="3" t="s">
         <v>70</v>
@@ -8126,7 +8126,7 @@
         <v>83</v>
       </c>
       <c r="BE39" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF39" s="3" t="s">
         <v>57</v>
@@ -8140,7 +8140,7 @@
         <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>27</v>
@@ -8162,7 +8162,7 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>91</v>
@@ -8198,19 +8198,19 @@
         <v>57</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y40" s="3">
         <v>14</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA40" s="3">
         <v>14</v>
@@ -8222,10 +8222,10 @@
         <v>88</v>
       </c>
       <c r="AD40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF40" s="3" t="s">
         <v>30</v>
@@ -8243,7 +8243,7 @@
         <v>4</v>
       </c>
       <c r="AK40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL40" s="3" t="s">
         <v>88</v>
@@ -8276,7 +8276,7 @@
         <v>57</v>
       </c>
       <c r="AV40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW40" s="3" t="s">
         <v>70</v>
@@ -8303,7 +8303,7 @@
         <v>83</v>
       </c>
       <c r="BE40" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF40" s="3" t="s">
         <v>57</v>
@@ -8317,7 +8317,7 @@
         <v>86</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>27</v>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>91</v>
@@ -8375,19 +8375,19 @@
         <v>57</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y41" s="3">
         <v>17</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA41" s="3">
         <v>20</v>
@@ -8399,10 +8399,10 @@
         <v>88</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF41" s="3" t="s">
         <v>30</v>
@@ -8453,7 +8453,7 @@
         <v>57</v>
       </c>
       <c r="AV41" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW41" s="3" t="s">
         <v>70</v>
@@ -8480,7 +8480,7 @@
         <v>83</v>
       </c>
       <c r="BE41" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF41" s="3" t="s">
         <v>57</v>
@@ -8494,7 +8494,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>27</v>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>91</v>
@@ -8552,19 +8552,19 @@
         <v>57</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y42" s="3">
         <v>17</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA42" s="3">
         <v>17</v>
@@ -8576,10 +8576,10 @@
         <v>88</v>
       </c>
       <c r="AD42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF42" s="3" t="s">
         <v>30</v>
@@ -8597,7 +8597,7 @@
         <v>3</v>
       </c>
       <c r="AK42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL42" s="3" t="s">
         <v>88</v>
@@ -8630,7 +8630,7 @@
         <v>57</v>
       </c>
       <c r="AV42" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW42" s="3" t="s">
         <v>70</v>
@@ -8657,7 +8657,7 @@
         <v>83</v>
       </c>
       <c r="BE42" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF42" s="3" t="s">
         <v>57</v>
@@ -8671,7 +8671,7 @@
         <v>86</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>27</v>
@@ -8692,10 +8692,10 @@
         <v>88</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>91</v>
@@ -8731,19 +8731,19 @@
         <v>57</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y43" s="3">
         <v>17</v>
       </c>
       <c r="Z43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA43" s="3">
         <v>14</v>
@@ -8755,10 +8755,10 @@
         <v>88</v>
       </c>
       <c r="AD43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF43" s="3" t="s">
         <v>30</v>
@@ -8776,7 +8776,7 @@
         <v>2</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>88</v>
@@ -8809,7 +8809,7 @@
         <v>57</v>
       </c>
       <c r="AV43" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW43" s="3" t="s">
         <v>70</v>
@@ -8836,7 +8836,7 @@
         <v>83</v>
       </c>
       <c r="BE43" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF43" s="3" t="s">
         <v>57</v>
@@ -8850,7 +8850,7 @@
         <v>86</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>27</v>
@@ -8871,10 +8871,10 @@
         <v>88</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>91</v>
@@ -8910,19 +8910,19 @@
         <v>57</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y44" s="3">
         <v>20</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA44" s="3">
         <v>21</v>
@@ -8934,10 +8934,10 @@
         <v>88</v>
       </c>
       <c r="AD44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF44" s="3" t="s">
         <v>30</v>
@@ -8988,7 +8988,7 @@
         <v>57</v>
       </c>
       <c r="AV44" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW44" s="3" t="s">
         <v>58</v>
@@ -9029,7 +9029,7 @@
         <v>86</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>27</v>
@@ -9053,7 +9053,7 @@
         <v>34</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>92</v>
@@ -9089,19 +9089,19 @@
         <v>57</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y45" s="3">
         <v>19</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA45" s="3">
         <v>18</v>
@@ -9113,10 +9113,10 @@
         <v>88</v>
       </c>
       <c r="AD45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF45" s="3" t="s">
         <v>30</v>
@@ -9167,7 +9167,7 @@
         <v>57</v>
       </c>
       <c r="AV45" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW45" s="3" t="s">
         <v>58</v>
@@ -9208,7 +9208,7 @@
         <v>86</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>27</v>
@@ -9229,10 +9229,10 @@
         <v>88</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>92</v>
@@ -9268,19 +9268,19 @@
         <v>57</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>72</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y46" s="3">
         <v>29</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA46" s="3">
         <v>29</v>
@@ -9292,10 +9292,10 @@
         <v>88</v>
       </c>
       <c r="AD46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF46" s="3" t="s">
         <v>30</v>
@@ -9346,7 +9346,7 @@
         <v>57</v>
       </c>
       <c r="AV46" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW46" s="3" t="s">
         <v>58</v>
@@ -9373,7 +9373,7 @@
         <v>59</v>
       </c>
       <c r="BE46" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF46" s="3" t="s">
         <v>57</v>
@@ -9387,7 +9387,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>27</v>
@@ -9402,16 +9402,16 @@
         <v>4</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="I47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>91</v>
@@ -9447,19 +9447,19 @@
         <v>57</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y47" s="3">
         <v>18</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA47" s="3">
         <v>18</v>
@@ -9471,10 +9471,10 @@
         <v>88</v>
       </c>
       <c r="AD47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF47" s="3" t="s">
         <v>30</v>
@@ -9492,7 +9492,7 @@
         <v>3</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL47" s="3" t="s">
         <v>88</v>
@@ -9525,7 +9525,7 @@
         <v>57</v>
       </c>
       <c r="AV47" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW47" s="3" t="s">
         <v>58</v>
@@ -9549,10 +9549,10 @@
         <v>1400</v>
       </c>
       <c r="BD47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE47" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="BE47" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="BF47" s="3" t="s">
         <v>57</v>
@@ -9566,7 +9566,7 @@
         <v>86</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>27</v>
@@ -9587,13 +9587,13 @@
         <v>88</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s">
         <v>64</v>
@@ -9626,19 +9626,19 @@
         <v>57</v>
       </c>
       <c r="V48" t="s">
+        <v>172</v>
+      </c>
+      <c r="W48" t="s">
         <v>173</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>174</v>
-      </c>
-      <c r="X48" t="s">
-        <v>175</v>
       </c>
       <c r="Y48">
         <v>16</v>
       </c>
       <c r="Z48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA48">
         <v>17</v>
@@ -9650,10 +9650,10 @@
         <v>88</v>
       </c>
       <c r="AD48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF48" t="s">
         <v>30</v>
@@ -9701,10 +9701,10 @@
         <v>88</v>
       </c>
       <c r="AU48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW48" t="s">
         <v>58</v>
@@ -9739,7 +9739,7 @@
         <v>86</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
@@ -9761,10 +9761,10 @@
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L49" t="s">
         <v>31</v>
@@ -9773,13 +9773,13 @@
         <v>41.4</v>
       </c>
       <c r="N49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O49">
         <v>49.6</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>9</v>
@@ -9797,19 +9797,19 @@
         <v>57</v>
       </c>
       <c r="V49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y49">
         <v>17</v>
       </c>
       <c r="Z49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA49">
         <v>17</v>
@@ -9821,10 +9821,10 @@
         <v>88</v>
       </c>
       <c r="AD49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF49" t="s">
         <v>30</v>
@@ -9842,7 +9842,7 @@
         <v>2</v>
       </c>
       <c r="AK49" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL49" t="s">
         <v>88</v>
@@ -9872,10 +9872,10 @@
         <v>88</v>
       </c>
       <c r="AU49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW49" t="s">
         <v>58</v>
@@ -9910,7 +9910,7 @@
         <v>86</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>27</v>
@@ -9925,19 +9925,19 @@
         <v>3</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L50" t="s">
         <v>31</v>
@@ -9970,19 +9970,19 @@
         <v>57</v>
       </c>
       <c r="V50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W50" t="s">
         <v>38</v>
       </c>
       <c r="X50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y50">
         <v>22</v>
       </c>
       <c r="Z50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA50">
         <v>19</v>
@@ -9994,10 +9994,10 @@
         <v>88</v>
       </c>
       <c r="AD50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF50" t="s">
         <v>30</v>
@@ -10045,10 +10045,10 @@
         <v>88</v>
       </c>
       <c r="AU50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW50" t="s">
         <v>58</v>
@@ -10083,7 +10083,7 @@
         <v>86</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>27</v>
@@ -10105,10 +10105,10 @@
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L51" t="s">
         <v>68</v>
@@ -10117,7 +10117,7 @@
         <v>67</v>
       </c>
       <c r="N51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O51">
         <v>33</v>
@@ -10141,19 +10141,19 @@
         <v>57</v>
       </c>
       <c r="V51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W51" t="s">
         <v>38</v>
       </c>
       <c r="X51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y51">
         <v>18</v>
       </c>
       <c r="Z51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA51">
         <v>18</v>
@@ -10165,10 +10165,10 @@
         <v>88</v>
       </c>
       <c r="AD51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF51" t="s">
         <v>30</v>
@@ -10216,10 +10216,10 @@
         <v>88</v>
       </c>
       <c r="AU51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW51" t="s">
         <v>58</v>
@@ -10243,10 +10243,10 @@
         <v>1200</v>
       </c>
       <c r="BD51" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE51" t="s">
         <v>183</v>
-      </c>
-      <c r="BE51" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:57">
@@ -10254,7 +10254,7 @@
         <v>86</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>27</v>
@@ -10275,13 +10275,13 @@
         <v>88</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L52" t="s">
         <v>61</v>
@@ -10314,19 +10314,19 @@
         <v>57</v>
       </c>
       <c r="V52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y52">
         <v>22</v>
       </c>
       <c r="Z52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA52">
         <v>18</v>
@@ -10338,10 +10338,10 @@
         <v>88</v>
       </c>
       <c r="AD52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF52" t="s">
         <v>30</v>
@@ -10389,10 +10389,10 @@
         <v>88</v>
       </c>
       <c r="AU52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW52" t="s">
         <v>58</v>
@@ -10416,10 +10416,10 @@
         <v>1145</v>
       </c>
       <c r="BD52" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE52" t="s">
         <v>183</v>
-      </c>
-      <c r="BE52" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:57">
@@ -10427,7 +10427,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>27</v>
@@ -10442,17 +10442,17 @@
         <v>2</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L53" t="s">
         <v>31</v>
@@ -10461,7 +10461,7 @@
         <v>79.900000000000006</v>
       </c>
       <c r="N53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O53">
         <v>20.100000000000001</v>
@@ -10485,19 +10485,19 @@
         <v>57</v>
       </c>
       <c r="V53" t="s">
+        <v>172</v>
+      </c>
+      <c r="W53" t="s">
         <v>173</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>174</v>
-      </c>
-      <c r="X53" t="s">
-        <v>175</v>
       </c>
       <c r="Y53">
         <v>19</v>
       </c>
       <c r="Z53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA53">
         <v>18</v>
@@ -10509,10 +10509,10 @@
         <v>88</v>
       </c>
       <c r="AD53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF53" t="s">
         <v>30</v>
@@ -10560,10 +10560,10 @@
         <v>88</v>
       </c>
       <c r="AU53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW53" t="s">
         <v>58</v>
@@ -10587,10 +10587,10 @@
         <v>1330</v>
       </c>
       <c r="BD53" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE53" t="s">
         <v>183</v>
-      </c>
-      <c r="BE53" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:57">
@@ -10598,7 +10598,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>27</v>
@@ -10613,17 +10613,17 @@
         <v>3</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L54" t="s">
         <v>31</v>
@@ -10632,7 +10632,7 @@
         <v>92.4</v>
       </c>
       <c r="N54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O54">
         <v>7.6</v>
@@ -10656,19 +10656,19 @@
         <v>57</v>
       </c>
       <c r="V54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y54">
         <v>17</v>
       </c>
       <c r="Z54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA54">
         <v>13</v>
@@ -10680,10 +10680,10 @@
         <v>88</v>
       </c>
       <c r="AD54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF54" t="s">
         <v>30</v>
@@ -10701,7 +10701,7 @@
         <v>2</v>
       </c>
       <c r="AK54" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL54" t="s">
         <v>88</v>
@@ -10731,10 +10731,10 @@
         <v>88</v>
       </c>
       <c r="AU54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW54" t="s">
         <v>58</v>
@@ -10761,7 +10761,7 @@
         <v>75</v>
       </c>
       <c r="BE54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:57">
@@ -10769,7 +10769,7 @@
         <v>86</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>27</v>
@@ -10790,13 +10790,13 @@
         <v>88</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s">
         <v>61</v>
@@ -10829,19 +10829,19 @@
         <v>57</v>
       </c>
       <c r="V55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W55" t="s">
         <v>38</v>
       </c>
       <c r="X55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y55">
         <v>16</v>
       </c>
       <c r="Z55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA55">
         <v>17</v>
@@ -10853,10 +10853,10 @@
         <v>88</v>
       </c>
       <c r="AD55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF55" t="s">
         <v>30</v>
@@ -10904,10 +10904,10 @@
         <v>88</v>
       </c>
       <c r="AU55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW55" t="s">
         <v>58</v>
@@ -10934,7 +10934,7 @@
         <v>75</v>
       </c>
       <c r="BE55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:57">
@@ -10942,7 +10942,7 @@
         <v>86</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>27</v>
@@ -10964,10 +10964,10 @@
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L56" t="s">
         <v>31</v>
@@ -10976,7 +10976,7 @@
         <v>61.7</v>
       </c>
       <c r="N56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O56" s="20">
         <v>38.299999999999997</v>
@@ -11000,19 +11000,19 @@
         <v>57</v>
       </c>
       <c r="V56" t="s">
+        <v>172</v>
+      </c>
+      <c r="W56" t="s">
         <v>173</v>
       </c>
-      <c r="W56" t="s">
-        <v>174</v>
-      </c>
       <c r="X56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y56">
         <v>13</v>
       </c>
       <c r="Z56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA56">
         <v>11</v>
@@ -11024,10 +11024,10 @@
         <v>88</v>
       </c>
       <c r="AD56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF56" t="s">
         <v>30</v>
@@ -11045,7 +11045,7 @@
         <v>5</v>
       </c>
       <c r="AK56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL56" t="s">
         <v>88</v>
@@ -11075,10 +11075,10 @@
         <v>88</v>
       </c>
       <c r="AU56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW56" t="s">
         <v>58</v>
@@ -11105,7 +11105,7 @@
         <v>75</v>
       </c>
       <c r="BE56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:57">
@@ -11113,7 +11113,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>27</v>
@@ -11128,17 +11128,17 @@
         <v>2</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L57" t="s">
         <v>31</v>
@@ -11171,19 +11171,19 @@
         <v>57</v>
       </c>
       <c r="V57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y57">
         <v>20</v>
       </c>
       <c r="Z57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA57">
         <v>14</v>
@@ -11195,10 +11195,10 @@
         <v>88</v>
       </c>
       <c r="AD57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF57" t="s">
         <v>30</v>
@@ -11216,7 +11216,7 @@
         <v>3</v>
       </c>
       <c r="AK57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL57" t="s">
         <v>88</v>
@@ -11246,10 +11246,10 @@
         <v>88</v>
       </c>
       <c r="AU57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW57" t="s">
         <v>58</v>
@@ -11276,7 +11276,7 @@
         <v>75</v>
       </c>
       <c r="BE57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:57">
@@ -11284,7 +11284,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>27</v>
@@ -11306,10 +11306,10 @@
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s">
         <v>36</v>
@@ -11342,19 +11342,19 @@
         <v>57</v>
       </c>
       <c r="V58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W58" t="s">
         <v>38</v>
       </c>
       <c r="X58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y58" s="19">
         <v>18</v>
       </c>
       <c r="Z58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA58" s="19">
         <v>17</v>
@@ -11366,10 +11366,10 @@
         <v>88</v>
       </c>
       <c r="AD58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF58" t="s">
         <v>30</v>
@@ -11417,13 +11417,13 @@
         <v>88</v>
       </c>
       <c r="AU58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AX58" s="16" t="s">
         <v>57</v>
@@ -11447,7 +11447,7 @@
         <v>83</v>
       </c>
       <c r="BE58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:57">
@@ -11455,7 +11455,7 @@
         <v>86</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>27</v>
@@ -11476,16 +11476,16 @@
         <v>88</v>
       </c>
       <c r="I59" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="J59" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>230</v>
-      </c>
       <c r="L59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M59">
         <v>62.4</v>
@@ -11515,19 +11515,19 @@
         <v>57</v>
       </c>
       <c r="V59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W59" t="s">
         <v>62</v>
       </c>
       <c r="X59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y59">
         <v>21.5</v>
       </c>
       <c r="Z59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA59">
         <v>21.5</v>
@@ -11539,10 +11539,10 @@
         <v>88</v>
       </c>
       <c r="AD59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF59" t="s">
         <v>30</v>
@@ -11590,10 +11590,10 @@
         <v>88</v>
       </c>
       <c r="AU59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW59" t="s">
         <v>58</v>
@@ -11620,7 +11620,7 @@
         <v>59</v>
       </c>
       <c r="BE59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:57">
@@ -11628,7 +11628,7 @@
         <v>86</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>27</v>
@@ -11649,16 +11649,16 @@
         <v>88</v>
       </c>
       <c r="I60" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L60" t="s">
         <v>195</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K60" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="L60" t="s">
-        <v>196</v>
       </c>
       <c r="M60">
         <v>55.7</v>
@@ -11688,19 +11688,19 @@
         <v>57</v>
       </c>
       <c r="V60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W60" t="s">
         <v>62</v>
       </c>
       <c r="X60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y60">
         <v>16</v>
       </c>
       <c r="Z60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA60">
         <v>17</v>
@@ -11712,10 +11712,10 @@
         <v>88</v>
       </c>
       <c r="AD60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF60" t="s">
         <v>30</v>
@@ -11733,7 +11733,7 @@
         <v>4</v>
       </c>
       <c r="AK60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL60" t="s">
         <v>88</v>
@@ -11763,10 +11763,10 @@
         <v>88</v>
       </c>
       <c r="AU60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW60" t="s">
         <v>58</v>
@@ -11793,7 +11793,7 @@
         <v>59</v>
       </c>
       <c r="BE60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:57">
@@ -11801,7 +11801,7 @@
         <v>86</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>27</v>
@@ -11823,10 +11823,10 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
@@ -11835,13 +11835,13 @@
         <v>57.5</v>
       </c>
       <c r="N61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O61">
         <v>29.5</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>13</v>
@@ -11859,19 +11859,19 @@
         <v>57</v>
       </c>
       <c r="V61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W61" t="s">
         <v>62</v>
       </c>
       <c r="X61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y61">
         <v>21</v>
       </c>
       <c r="Z61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA61">
         <v>17</v>
@@ -11883,10 +11883,10 @@
         <v>88</v>
       </c>
       <c r="AD61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF61" t="s">
         <v>30</v>
@@ -11934,10 +11934,10 @@
         <v>88</v>
       </c>
       <c r="AU61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW61" t="s">
         <v>70</v>
@@ -11961,10 +11961,10 @@
         <v>1300</v>
       </c>
       <c r="BD61" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE61" t="s">
         <v>183</v>
-      </c>
-      <c r="BE61" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:57">
@@ -11972,7 +11972,7 @@
         <v>86</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>27</v>
@@ -11994,13 +11994,13 @@
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M62">
         <v>58.2</v>
@@ -12030,19 +12030,19 @@
         <v>57</v>
       </c>
       <c r="V62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y62">
         <v>14</v>
       </c>
       <c r="Z62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA62">
         <v>19</v>
@@ -12054,10 +12054,10 @@
         <v>88</v>
       </c>
       <c r="AD62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF62" t="s">
         <v>30</v>
@@ -12105,10 +12105,10 @@
         <v>88</v>
       </c>
       <c r="AU62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW62" t="s">
         <v>58</v>
@@ -12132,10 +12132,10 @@
         <v>1000</v>
       </c>
       <c r="BD62" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE62" t="s">
         <v>183</v>
-      </c>
-      <c r="BE62" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:57">
@@ -12143,7 +12143,7 @@
         <v>86</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>27</v>
@@ -12165,10 +12165,10 @@
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L63" t="s">
         <v>31</v>
@@ -12177,7 +12177,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="N63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O63">
         <v>25.9</v>
@@ -12201,19 +12201,19 @@
         <v>57</v>
       </c>
       <c r="V63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y63">
         <v>17</v>
       </c>
       <c r="Z63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA63">
         <v>17</v>
@@ -12225,10 +12225,10 @@
         <v>88</v>
       </c>
       <c r="AD63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF63" t="s">
         <v>30</v>
@@ -12276,10 +12276,10 @@
         <v>88</v>
       </c>
       <c r="AU63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW63" t="s">
         <v>58</v>
@@ -12306,7 +12306,7 @@
         <v>75</v>
       </c>
       <c r="BE63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:57">
@@ -12314,7 +12314,7 @@
         <v>86</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>27</v>
@@ -12335,16 +12335,16 @@
         <v>88</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M64">
         <v>65.2</v>
@@ -12374,19 +12374,19 @@
         <v>57</v>
       </c>
       <c r="V64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W64" t="s">
         <v>62</v>
       </c>
       <c r="X64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y64" s="19">
         <v>20</v>
       </c>
       <c r="Z64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA64">
         <v>14</v>
@@ -12398,10 +12398,10 @@
         <v>88</v>
       </c>
       <c r="AD64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF64" t="s">
         <v>30</v>
@@ -12449,10 +12449,10 @@
         <v>88</v>
       </c>
       <c r="AU64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW64" t="s">
         <v>58</v>
@@ -12479,7 +12479,7 @@
         <v>75</v>
       </c>
       <c r="BE64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:57">
@@ -12487,7 +12487,7 @@
         <v>86</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>27</v>
@@ -12509,19 +12509,19 @@
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M65" s="19">
         <v>74.900000000000006</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O65" s="19">
         <v>25.1</v>
@@ -12545,19 +12545,19 @@
         <v>57</v>
       </c>
       <c r="V65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y65">
         <v>21</v>
       </c>
       <c r="Z65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA65">
         <v>18</v>
@@ -12569,10 +12569,10 @@
         <v>88</v>
       </c>
       <c r="AD65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF65" t="s">
         <v>30</v>
@@ -12620,10 +12620,10 @@
         <v>88</v>
       </c>
       <c r="AU65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW65" t="s">
         <v>70</v>
@@ -12650,7 +12650,7 @@
         <v>83</v>
       </c>
       <c r="BE65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:57">
@@ -12658,7 +12658,7 @@
         <v>86</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>27</v>
@@ -12680,10 +12680,10 @@
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L66" t="s">
         <v>31</v>
@@ -12692,7 +12692,7 @@
         <v>81.5</v>
       </c>
       <c r="N66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O66">
         <v>18.5</v>
@@ -12716,19 +12716,19 @@
         <v>57</v>
       </c>
       <c r="V66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W66" t="s">
         <v>62</v>
       </c>
       <c r="X66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y66">
         <v>13</v>
       </c>
       <c r="Z66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA66">
         <v>13</v>
@@ -12740,10 +12740,10 @@
         <v>88</v>
       </c>
       <c r="AD66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF66" t="s">
         <v>30</v>
@@ -12791,10 +12791,10 @@
         <v>88</v>
       </c>
       <c r="AU66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW66" t="s">
         <v>70</v>
@@ -12815,13 +12815,13 @@
         <v>57</v>
       </c>
       <c r="BC66" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BD66" t="s">
         <v>59</v>
       </c>
       <c r="BE66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/processed_data/participants_cleaned/LLL_Liv_Participants.xlsx
+++ b/processed_data/participants_cleaned/LLL_Liv_Participants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="9300" windowWidth="34720" windowHeight="16820"/>
+    <workbookView xWindow="16380" yWindow="8580" windowWidth="34720" windowHeight="16820"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="234">
   <si>
     <t>method</t>
   </si>
@@ -622,9 +622,6 @@
   </si>
   <si>
     <t xml:space="preserve">Japanese </t>
-  </si>
-  <si>
-    <t>Japanese</t>
   </si>
   <si>
     <t xml:space="preserve">French </t>
@@ -1172,7 +1169,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1182,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1250,10 +1247,10 @@
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>96</v>
@@ -1283,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>23</v>
@@ -2105,7 +2102,7 @@
         <v>168</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>111</v>
@@ -2638,7 +2635,7 @@
         <v>168</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>111</v>
@@ -2817,7 +2814,7 @@
         <v>168</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>111</v>
@@ -3175,7 +3172,7 @@
         <v>168</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>111</v>
@@ -3354,7 +3351,7 @@
         <v>168</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>111</v>
@@ -3533,7 +3530,7 @@
         <v>168</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>111</v>
@@ -8692,7 +8689,7 @@
         <v>87</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>111</v>
@@ -9566,7 +9563,7 @@
         <v>85</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>26</v>
@@ -9587,13 +9584,13 @@
         <v>87</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J48" s="16" t="s">
         <v>111</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L48" t="s">
         <v>63</v>
@@ -9739,7 +9736,7 @@
         <v>85</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>26</v>
@@ -9764,7 +9761,7 @@
         <v>111</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L49" t="s">
         <v>30</v>
@@ -9910,7 +9907,7 @@
         <v>85</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>26</v>
@@ -9931,13 +9928,13 @@
         <v>178</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J50" s="16" t="s">
         <v>111</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s">
         <v>30</v>
@@ -10083,7 +10080,7 @@
         <v>85</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
@@ -10108,7 +10105,7 @@
         <v>111</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L51" t="s">
         <v>67</v>
@@ -10254,7 +10251,7 @@
         <v>85</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>26</v>
@@ -10275,13 +10272,13 @@
         <v>87</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J52" s="16" t="s">
         <v>111</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L52" t="s">
         <v>60</v>
@@ -10427,7 +10424,7 @@
         <v>85</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>26</v>
@@ -10452,7 +10449,7 @@
         <v>111</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L53" t="s">
         <v>30</v>
@@ -10598,7 +10595,7 @@
         <v>85</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>26</v>
@@ -10623,7 +10620,7 @@
         <v>111</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L54" t="s">
         <v>30</v>
@@ -10769,7 +10766,7 @@
         <v>85</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>26</v>
@@ -10790,13 +10787,13 @@
         <v>87</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J55" s="16" t="s">
         <v>111</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L55" t="s">
         <v>60</v>
@@ -10942,7 +10939,7 @@
         <v>85</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>26</v>
@@ -10967,7 +10964,7 @@
         <v>111</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L56" t="s">
         <v>30</v>
@@ -11113,7 +11110,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>26</v>
@@ -11138,7 +11135,7 @@
         <v>111</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L57" t="s">
         <v>30</v>
@@ -11284,7 +11281,7 @@
         <v>85</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>26</v>
@@ -11309,7 +11306,7 @@
         <v>111</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s">
         <v>35</v>
@@ -11455,7 +11452,7 @@
         <v>85</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>26</v>
@@ -11476,13 +11473,13 @@
         <v>87</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>111</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L59" t="s">
         <v>190</v>
@@ -11628,7 +11625,7 @@
         <v>85</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>26</v>
@@ -11655,7 +11652,7 @@
         <v>111</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L60" t="s">
         <v>193</v>
@@ -11801,7 +11798,7 @@
         <v>85</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>26</v>
@@ -11826,7 +11823,7 @@
         <v>111</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s">
         <v>30</v>
@@ -11972,7 +11969,7 @@
         <v>85</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>26</v>
@@ -11997,7 +11994,7 @@
         <v>111</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L62" t="s">
         <v>179</v>
@@ -12143,7 +12140,7 @@
         <v>85</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>26</v>
@@ -12168,7 +12165,7 @@
         <v>111</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L63" t="s">
         <v>30</v>
@@ -12314,7 +12311,7 @@
         <v>85</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>26</v>
@@ -12335,13 +12332,13 @@
         <v>87</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J64" s="16" t="s">
         <v>111</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L64" t="s">
         <v>199</v>
@@ -12487,7 +12484,7 @@
         <v>85</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>26</v>
@@ -12512,7 +12509,7 @@
         <v>111</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L65" t="s">
         <v>199</v>
@@ -12521,13 +12518,13 @@
         <v>74.900000000000006</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="O65" s="19">
         <v>25.1</v>
       </c>
       <c r="P65" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="Q65" t="s">
         <v>87</v>
@@ -12658,7 +12655,7 @@
         <v>85</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>26</v>
@@ -12683,7 +12680,7 @@
         <v>111</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L66" t="s">
         <v>30</v>
@@ -12692,7 +12689,7 @@
         <v>81.5</v>
       </c>
       <c r="N66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66">
         <v>18.5</v>
@@ -12815,7 +12812,7 @@
         <v>56</v>
       </c>
       <c r="BC66" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD66" t="s">
         <v>58</v>

--- a/processed_data/participants_cleaned/LLL_Liv_Participants.xlsx
+++ b/processed_data/participants_cleaned/LLL_Liv_Participants.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="235">
   <si>
     <t>method</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>hearing_vision</t>
+  </si>
+  <si>
+    <t>fussy</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1172,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1179,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3880,10 +3883,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
@@ -6372,10 +6375,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>161</v>
